--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-patient-profile</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-patient-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -346,7 +346,7 @@
     <t>MolicAVC_GenderIdentityExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-genderidentity-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-genderidentity-extension}
 </t>
   </si>
   <si>
@@ -362,7 +362,7 @@
     <t>MolicAVC_SexExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-sex-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-sex-extension}
 </t>
   </si>
   <si>
@@ -378,7 +378,7 @@
     <t>MolicAVC_EthnicityExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-ethnicity-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-ethnicity-extension}
 </t>
   </si>
   <si>
@@ -394,7 +394,7 @@
     <t>MolicAVC_RaceExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-race-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-race-extension}
 </t>
   </si>
   <si>
@@ -410,7 +410,7 @@
     <t>MolicAVC_LivingLocationPreStrokeExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/living-location-pre-stroke-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/living-location-pre-stroke-extension}
 </t>
   </si>
   <si>
@@ -426,7 +426,7 @@
     <t>MolicAVC_LiveAlonePreStrokeExtension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/live-alone-pre-stroke-extension}
+    <t xml:space="preserve">Extension {https://molic-avc.gabriellesantosleandro.com/StructureDefinition/live-alone-pre-stroke-extension}
 </t>
   </si>
   <si>
@@ -1901,7 +1901,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="103.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Patient Profile</t>
+    <t>Profile of Molic-AVC's Patient</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>administrative.individual</t>
   </si>
   <si>
@@ -350,7 +354,7 @@
 </t>
   </si>
   <si>
-    <t>Patient Gender Extension</t>
+    <t>Extension of Patient Gender Identity</t>
   </si>
   <si>
     <t>The patient's gender.</t>
@@ -366,7 +370,7 @@
 </t>
   </si>
   <si>
-    <t>Patient Sex Extension</t>
+    <t>Extension of Patient Sex</t>
   </si>
   <si>
     <t>The patient's sex at birth.</t>
@@ -382,7 +386,7 @@
 </t>
   </si>
   <si>
-    <t>Patient Ethnicity Extension</t>
+    <t>Extension of Patient Ethnicity</t>
   </si>
   <si>
     <t>Extension to capture the patient's ethnicity which represents their cultural background or heritage. Although optional, ICHOM strongly encourages collecting this inclusive information.</t>
@@ -398,7 +402,7 @@
 </t>
   </si>
   <si>
-    <t>Patient Race Extension</t>
+    <t>Extension of Patient Race</t>
   </si>
   <si>
     <t>Extension to capture the patient's race, as recommended by ICHOM.</t>
@@ -414,7 +418,7 @@
 </t>
   </si>
   <si>
-    <t>Patient's Residence Prior to a Stroke Extension</t>
+    <t>Extension of Patient's Residence Prior to a Stroke</t>
   </si>
   <si>
     <t>An extension to capture the patient's residence prior to a stroke event, based on the ICHOM code.</t>
@@ -430,7 +434,7 @@
 </t>
   </si>
   <si>
-    <t>Live Alone Pre-Stroke Extension</t>
+    <t>Extension of Live Alone Pre-Stroke</t>
   </si>
   <si>
     <t>Extension indicating whether a patient lived alone prior to a stroke event based on ICHOM terminology.</t>
@@ -2031,19 +2035,19 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>38</v>
@@ -2054,10 +2058,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2068,7 +2072,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -2077,19 +2081,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2139,13 +2143,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -2174,10 +2178,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2188,7 +2192,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -2197,16 +2201,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2257,19 +2261,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2292,10 +2296,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2306,28 +2310,28 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2377,19 +2381,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2412,10 +2416,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2426,7 +2430,7 @@
         <v>36</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2438,16 +2442,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2473,13 +2477,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2497,19 +2501,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2532,21 +2536,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2558,16 +2562,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2617,25 +2621,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2652,14 +2656,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2678,16 +2682,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2737,7 +2741,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2746,7 +2750,7 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>38</v>
@@ -2755,7 +2759,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2772,10 +2776,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2783,7 +2787,7 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -2798,13 +2802,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2843,17 +2847,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2865,7 +2869,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2888,26 +2892,26 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>38</v>
@@ -2916,13 +2920,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2973,7 +2977,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2985,7 +2989,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -3008,26 +3012,26 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>38</v>
@@ -3036,13 +3040,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3093,7 +3097,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3105,7 +3109,7 @@
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -3128,13 +3132,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -3144,10 +3148,10 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>38</v>
@@ -3156,13 +3160,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3213,7 +3217,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3225,7 +3229,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3248,13 +3252,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3264,10 +3268,10 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>38</v>
@@ -3276,13 +3280,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3333,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3345,7 +3349,7 @@
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3368,13 +3372,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>38</v>
@@ -3384,10 +3388,10 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>38</v>
@@ -3396,13 +3400,13 @@
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3453,7 +3457,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3465,7 +3469,7 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -3488,13 +3492,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>38</v>
@@ -3504,10 +3508,10 @@
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>38</v>
@@ -3516,13 +3520,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3573,7 +3577,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3585,7 +3589,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -3608,14 +3612,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3628,25 +3632,25 @@
         <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>38</v>
@@ -3695,7 +3699,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3707,13 +3711,13 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>38</v>
@@ -3730,10 +3734,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3741,32 +3745,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>38</v>
@@ -3803,17 +3807,17 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3825,22 +3829,22 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>38</v>
@@ -3848,10 +3852,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3862,7 +3866,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -3874,13 +3878,13 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3931,16 +3935,16 @@
         <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>38</v>
@@ -3949,7 +3953,7 @@
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3966,14 +3970,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3992,16 +3996,16 @@
         <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4039,19 +4043,19 @@
         <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4063,13 +4067,13 @@
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
@@ -4086,10 +4090,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4097,34 +4101,34 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -4149,11 +4153,11 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -4171,25 +4175,25 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
@@ -4198,7 +4202,7 @@
         <v>38</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>38</v>
@@ -4206,10 +4210,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4220,7 +4224,7 @@
         <v>36</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -4229,22 +4233,22 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
@@ -4269,13 +4273,13 @@
         <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>38</v>
@@ -4293,25 +4297,25 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
@@ -4320,7 +4324,7 @@
         <v>38</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>38</v>
@@ -4328,10 +4332,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4339,10 +4343,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4351,22 +4355,22 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>38</v>
@@ -4379,7 +4383,7 @@
         <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>38</v>
@@ -4415,25 +4419,25 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
@@ -4442,7 +4446,7 @@
         <v>38</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>38</v>
@@ -4450,10 +4454,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4461,10 +4465,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4473,19 +4477,19 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4499,7 +4503,7 @@
         <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>38</v>
@@ -4535,25 +4539,25 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
@@ -4562,7 +4566,7 @@
         <v>38</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>38</v>
@@ -4570,10 +4574,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4584,7 +4588,7 @@
         <v>36</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4593,16 +4597,16 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4653,25 +4657,25 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
@@ -4680,7 +4684,7 @@
         <v>38</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>38</v>
@@ -4688,10 +4692,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4702,7 +4706,7 @@
         <v>36</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -4711,19 +4715,19 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4773,25 +4777,25 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>38</v>
@@ -4800,7 +4804,7 @@
         <v>38</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>38</v>
@@ -4808,13 +4812,13 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>38</v>
@@ -4824,7 +4828,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4833,20 +4837,20 @@
         <v>38</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>38</v>
@@ -4895,7 +4899,7 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -4907,22 +4911,22 @@
         <v>38</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>38</v>
@@ -4930,10 +4934,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4944,7 +4948,7 @@
         <v>36</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>38</v>
@@ -4956,13 +4960,13 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5013,16 +5017,16 @@
         <v>38</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>38</v>
@@ -5031,7 +5035,7 @@
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -5048,14 +5052,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5074,16 +5078,16 @@
         <v>38</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5121,19 +5125,19 @@
         <v>38</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5145,13 +5149,13 @@
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
@@ -5168,10 +5172,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5182,31 +5186,31 @@
         <v>36</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -5216,7 +5220,7 @@
         <v>38</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>38</v>
@@ -5231,13 +5235,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -5255,25 +5259,25 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
@@ -5282,7 +5286,7 @@
         <v>38</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>38</v>
@@ -5290,10 +5294,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5304,7 +5308,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5313,22 +5317,22 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
@@ -5353,13 +5357,13 @@
         <v>38</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>38</v>
@@ -5377,25 +5381,25 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
@@ -5404,7 +5408,7 @@
         <v>38</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>38</v>
@@ -5412,10 +5416,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5426,7 +5430,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5435,22 +5439,22 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>38</v>
@@ -5460,10 +5464,10 @@
         <v>38</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5499,25 +5503,25 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
@@ -5526,7 +5530,7 @@
         <v>38</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>38</v>
@@ -5534,10 +5538,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5548,7 +5552,7 @@
         <v>36</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5557,19 +5561,19 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5583,7 +5587,7 @@
         <v>38</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>38</v>
@@ -5619,25 +5623,25 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
@@ -5646,7 +5650,7 @@
         <v>38</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>38</v>
@@ -5654,10 +5658,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5668,7 +5672,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5677,16 +5681,16 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5737,25 +5741,25 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
@@ -5764,7 +5768,7 @@
         <v>38</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>38</v>
@@ -5772,10 +5776,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5786,7 +5790,7 @@
         <v>36</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>38</v>
@@ -5795,19 +5799,19 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5857,25 +5861,25 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5884,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>38</v>
@@ -5892,10 +5896,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5903,109 +5907,109 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH34" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="I34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="AI34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>38</v>
@@ -6016,10 +6020,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6027,34 +6031,34 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>38</v>
@@ -6103,7 +6107,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -6115,22 +6119,22 @@
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>38</v>
@@ -6138,10 +6142,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6152,7 +6156,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>38</v>
@@ -6164,13 +6168,13 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6221,16 +6225,16 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>38</v>
@@ -6239,7 +6243,7 @@
         <v>38</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
@@ -6256,14 +6260,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6282,16 +6286,16 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6329,19 +6333,19 @@
         <v>38</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6353,13 +6357,13 @@
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6376,10 +6380,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6387,34 +6391,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>38</v>
@@ -6424,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>38</v>
@@ -6439,13 +6443,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6463,25 +6467,25 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>38</v>
@@ -6490,7 +6494,7 @@
         <v>38</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>38</v>
@@ -6498,10 +6502,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6509,34 +6513,34 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6585,25 +6589,25 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>38</v>
@@ -6612,7 +6616,7 @@
         <v>38</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>38</v>
@@ -6620,21 +6624,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6643,19 +6647,19 @@
         <v>38</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6705,25 +6709,25 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>38</v>
@@ -6732,7 +6736,7 @@
         <v>38</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>38</v>
@@ -6740,14 +6744,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6763,19 +6767,19 @@
         <v>38</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6825,7 +6829,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6837,13 +6841,13 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>38</v>
@@ -6852,7 +6856,7 @@
         <v>38</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>38</v>
@@ -6860,10 +6864,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6883,16 +6887,16 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6943,7 +6947,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6955,13 +6959,13 @@
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>38</v>
@@ -6970,7 +6974,7 @@
         <v>38</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>38</v>
@@ -6978,10 +6982,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7001,16 +7005,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7061,7 +7065,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -7073,13 +7077,13 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>38</v>
@@ -7088,7 +7092,7 @@
         <v>38</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>38</v>
@@ -7096,10 +7100,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7110,7 +7114,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -7119,20 +7123,20 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>38</v>
@@ -7181,25 +7185,25 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -7208,7 +7212,7 @@
         <v>38</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>38</v>
@@ -7216,10 +7220,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7239,22 +7243,22 @@
         <v>38</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>38</v>
@@ -7303,7 +7307,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7315,22 +7319,22 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>38</v>
@@ -7338,10 +7342,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7361,22 +7365,22 @@
         <v>38</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7401,13 +7405,13 @@
         <v>38</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>38</v>
@@ -7425,34 +7429,34 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>38</v>
@@ -7460,10 +7464,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7471,34 +7475,34 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>38</v>
@@ -7547,45 +7551,45 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7596,31 +7600,31 @@
         <v>36</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>38</v>
@@ -7657,44 +7661,44 @@
         <v>38</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>38</v>
@@ -7702,13 +7706,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>38</v>
@@ -7718,31 +7722,31 @@
         <v>36</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>38</v>
@@ -7791,34 +7795,34 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>38</v>
@@ -7826,10 +7830,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7840,7 +7844,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>38</v>
@@ -7849,22 +7853,22 @@
         <v>38</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>38</v>
@@ -7913,7 +7917,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7925,22 +7929,22 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>38</v>
@@ -7948,10 +7952,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7974,17 +7978,17 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>38</v>
@@ -8009,13 +8013,13 @@
         <v>38</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>38</v>
@@ -8033,34 +8037,34 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>38</v>
@@ -8068,10 +8072,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8094,19 +8098,19 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8155,34 +8159,34 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>38</v>
@@ -8190,10 +8194,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8216,19 +8220,19 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8277,7 +8281,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8289,22 +8293,22 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>38</v>
@@ -8312,10 +8316,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8338,19 +8342,19 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>38</v>
@@ -8399,7 +8403,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8411,19 +8415,19 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>38</v>
@@ -8434,10 +8438,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8448,7 +8452,7 @@
         <v>36</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8460,13 +8464,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8517,16 +8521,16 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>38</v>
@@ -8535,7 +8539,7 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8552,14 +8556,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8578,16 +8582,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8637,7 +8641,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8649,13 +8653,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8672,14 +8676,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8692,25 +8696,25 @@
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8759,7 +8763,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8771,13 +8775,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8794,10 +8798,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8820,17 +8824,17 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>38</v>
@@ -8855,13 +8859,13 @@
         <v>38</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>38</v>
@@ -8879,7 +8883,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8891,22 +8895,22 @@
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>38</v>
@@ -8914,10 +8918,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8928,7 +8932,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8940,17 +8944,17 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>38</v>
@@ -8999,34 +9003,34 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>38</v>
@@ -9034,10 +9038,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9060,19 +9064,19 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -9121,7 +9125,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9130,25 +9134,25 @@
         <v>37</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>38</v>
@@ -9156,10 +9160,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9170,7 +9174,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -9182,17 +9186,17 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>38</v>
@@ -9241,34 +9245,34 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>38</v>
@@ -9276,10 +9280,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9290,7 +9294,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -9302,17 +9306,17 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9337,13 +9341,13 @@
         <v>38</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>38</v>
@@ -9361,34 +9365,34 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>38</v>
@@ -9396,10 +9400,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9410,7 +9414,7 @@
         <v>36</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9422,17 +9426,17 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>38</v>
@@ -9481,34 +9485,34 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>38</v>
@@ -9516,10 +9520,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9530,7 +9534,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>38</v>
@@ -9542,13 +9546,13 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9599,31 +9603,31 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>38</v>
@@ -9634,10 +9638,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9660,19 +9664,19 @@
         <v>38</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>38</v>
@@ -9721,7 +9725,7 @@
         <v>38</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9733,19 +9737,19 @@
         <v>38</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>38</v>
@@ -9756,10 +9760,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9770,7 +9774,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>38</v>
@@ -9782,13 +9786,13 @@
         <v>38</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9839,16 +9843,16 @@
         <v>38</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>38</v>
@@ -9857,7 +9861,7 @@
         <v>38</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>38</v>
@@ -9874,14 +9878,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9900,16 +9904,16 @@
         <v>38</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9959,7 +9963,7 @@
         <v>38</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9971,13 +9975,13 @@
         <v>38</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>38</v>
@@ -9994,14 +9998,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10014,25 +10018,25 @@
         <v>38</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>38</v>
@@ -10081,7 +10085,7 @@
         <v>38</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -10093,13 +10097,13 @@
         <v>38</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>38</v>
@@ -10116,10 +10120,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10127,10 +10131,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>38</v>
@@ -10142,19 +10146,19 @@
         <v>38</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>38</v>
@@ -10179,13 +10183,13 @@
         <v>38</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>38</v>
@@ -10203,34 +10207,34 @@
         <v>38</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>38</v>
@@ -10238,10 +10242,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10252,7 +10256,7 @@
         <v>36</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>38</v>
@@ -10264,19 +10268,19 @@
         <v>38</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>38</v>
@@ -10325,34 +10329,34 @@
         <v>38</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>38</v>
@@ -10360,14 +10364,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10386,16 +10390,16 @@
         <v>38</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10445,7 +10449,7 @@
         <v>38</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
@@ -10457,22 +10461,22 @@
         <v>38</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>38</v>
@@ -10480,10 +10484,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10503,22 +10507,22 @@
         <v>38</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>38</v>
@@ -10567,31 +10571,31 @@
         <v>38</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>38</v>
@@ -10602,10 +10606,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10622,25 +10626,25 @@
         <v>38</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>38</v>
@@ -10689,7 +10693,7 @@
         <v>38</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10701,19 +10705,19 @@
         <v>38</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>38</v>
@@ -10724,10 +10728,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10738,7 +10742,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>38</v>
@@ -10750,13 +10754,13 @@
         <v>38</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10807,16 +10811,16 @@
         <v>38</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>38</v>
@@ -10825,7 +10829,7 @@
         <v>38</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>38</v>
@@ -10842,14 +10846,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10868,16 +10872,16 @@
         <v>38</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10927,7 +10931,7 @@
         <v>38</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10939,13 +10943,13 @@
         <v>38</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>38</v>
@@ -10962,14 +10966,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10982,25 +10986,25 @@
         <v>38</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>38</v>
@@ -11049,7 +11053,7 @@
         <v>38</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
@@ -11061,13 +11065,13 @@
         <v>38</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>38</v>
@@ -11084,10 +11088,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11095,10 +11099,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>38</v>
@@ -11107,19 +11111,19 @@
         <v>38</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -11169,34 +11173,34 @@
         <v>38</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AP77" t="s" s="2">
         <v>38</v>
@@ -11204,10 +11208,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11215,10 +11219,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>38</v>
@@ -11227,16 +11231,16 @@
         <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11263,13 +11267,13 @@
         <v>38</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>38</v>
@@ -11287,31 +11291,31 @@
         <v>38</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="499">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1724,7 +1724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1814,69 +1814,77 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B20" t="s" s="2">
         <v>34</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-patient-profile.xlsx
+++ b/StructureDefinition-molicavc-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
